--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_08.08.24_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_08.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1717 +505,2039 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731410006.6623373</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731410009.0104504</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410006.6623373.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410009.0104504.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.53</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.28</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731410010.842314</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731410011.5074825</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410010.842314.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410011.5074825.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>283.65</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>283.26</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.3899999999999864</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731410011.8689723</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731410012.071715</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410011.8689723.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410012.071715.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>282.72</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>283.39</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.6699999999999591</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731410012.1688397</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731410012.1688397.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731410012.1688397.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>282.84</v>
       </c>
-      <c r="J6" t="n">
-        <v>282.84</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.339999999999975</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731410012.5551977</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731410014.3124943</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410012.5551977.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410014.3124943.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>283.53</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>283.28</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731410015.6279762</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731410016.1914716</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410015.6279762.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410016.1914716.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.65</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.26</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.3899999999999864</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731410016.507629</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731410016.6761723</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410016.507629.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410016.6761723.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>282.72</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>283.39</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.6699999999999591</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731410016.765935</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731410016.9921503</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410016.765935.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410016.9921503.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>282.84</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>284.05</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.210000000000036</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731410018.3498654</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731410019.8513234</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410018.3498654.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410019.8513234.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>284.59</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>284.25</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.339999999999975</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731410020.391339</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731410020.8957</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410020.391339.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410020.8957.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>284.89</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>284.71</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731410021.707553</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731410024.2542446</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410021.707553.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410024.2542446.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>284.01</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>283.48</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.5299999999999727</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731410025.6406476</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731410026.3411586</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410025.6406476.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410026.3411586.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>284.1</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>283.77</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.3300000000000409</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731410026.4386725</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731410026.4386725.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731410026.4386725.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>283.45</v>
       </c>
-      <c r="J15" t="n">
-        <v>283.45</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>282.85</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.5999999999999659</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731410030.5145586</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731410031.2690394</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410030.5145586.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410031.2690394.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>130.7</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>130.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731410032.0116694</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731410034.2953513</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410032.0116694.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410034.2953513.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>130.1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>129.79</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.3100000000000023</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731410034.6166089</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731410035.3604875</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410034.6166089.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410035.3604875.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>128.9</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>129.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.5999999999999943</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731410038.4689703</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731410038.4689703.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731410038.4689703.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>129.21</v>
       </c>
-      <c r="J19" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>129.13</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.08000000000001251</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731410038.9071627</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731410039.621603</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410038.9071627.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410039.621603.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6485.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6511.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>26</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731410041.6436114</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731410042.5792549</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410041.6436114.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410042.5792549.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6532</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6529.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>2.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731410042.9052567</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731410043.8696682</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410042.9052567.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410043.8696682.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6510.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6529.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>19</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731410044.5109668</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731410047.053593</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410044.5109668.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410047.053593.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6502.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6478</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-24.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731410047.7376597</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731410048.2127514</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410047.7376597.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410048.2127514.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6498.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6481</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>17.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731410048.4488404</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731410048.4488404.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731410048.4488404.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6473.5</v>
       </c>
-      <c r="J25" t="n">
-        <v>6473.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
+      <c r="L25" t="n">
+        <v>6462.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-11</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731410050.141015</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731410052.6924412</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410050.141015.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410052.6924412.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>511.1</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>512.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-1.399999999999977</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731410053.331836</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731410053.8295631</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410053.331836.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410053.8295631.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>511.25</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>511.8</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731410054.5841293</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731410056.0955293</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410054.5841293.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410056.0955293.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>509.65</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>510.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.8500000000000227</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731410057.8474483</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731410058.3612442</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410057.8474483.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410058.3612442.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>511.95</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>510.8</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.149999999999977</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731410058.5095608</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731410058.5095608.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731410058.5095608.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>510.25</v>
       </c>
-      <c r="J30" t="n">
-        <v>510.25</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
+      <c r="L30" t="n">
+        <v>510.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.05000000000001137</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731410060.150643</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731410063.1850274</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410060.150643.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410063.1850274.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>228.6</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>229.31</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.710000000000008</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731410063.4877214</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731410064.5482748</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410063.4877214.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410064.5482748.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>228.7</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>229.35</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.6500000000000057</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731410065.343222</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731410067.3512216</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410065.343222.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410067.3512216.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>228.55</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>228.65</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731410069.5100977</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731410070.2581406</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410069.5100977.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410070.2581406.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>229.16</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>228.65</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.5099999999999909</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731410071.7635393</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731410074.9575405</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410071.7635393.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410074.9575405.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1020.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1025.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-4.600000000000023</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731410075.3947291</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731410076.2599106</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410075.3947291.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410076.2599106.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1023</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1026</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>3</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731410077.6550357</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731410078.9258134</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410077.6550357.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410078.9258134.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1021.8</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1021.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2208,1388 +2545,1649 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731410080.4493892</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731410081.545695</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410080.4493892.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410081.545695.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1024</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1022.8</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731410082.0606313</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731410082.3524928</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410082.0606313.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410082.3524928.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>11.87</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>11.881</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.01100000000000101</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731410082.8544705</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731410086.8226004</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410082.8544705.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410086.8226004.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>11.908</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>11.954</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.04600000000000115</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731410087.9934165</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731410090.7988193</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410087.9934165.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410090.7988193.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>11.941</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>11.935</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.006000000000000227</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731410092.6540365</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731410092.6540365.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731410092.6540365.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>11.966</v>
       </c>
-      <c r="J42" t="n">
-        <v>11.966</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
+      <c r="L42" t="n">
+        <v>11.969</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.003000000000000114</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731410095.7520049</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731410097.4586952</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410095.7520049.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410097.4586952.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>124.66</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>124.86</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731410097.6957834</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731410098.136945</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410097.6957834.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410098.136945.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>125.06</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>124.76</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.2999999999999972</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731410098.322166</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731410098.905668</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410098.322166.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410098.905668.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>124.62</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>124.64</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731410099.101865</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731410101.4064867</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410099.101865.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410101.4064867.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>124.1</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>123.86</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.2399999999999949</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731410104.2163684</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731410104.2163684.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731410104.2163684.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>123.6</v>
       </c>
-      <c r="J47" t="n">
-        <v>123.6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731410104.540398</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731410105.7038956</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410104.540398.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410105.7038956.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>160.74</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>161.66</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.9199999999999875</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731410108.0477457</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731410108.9972553</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410108.0477457.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410108.9972553.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>162.14</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>162.28</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.1400000000000148</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731410109.5608952</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731410113.5439985</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410109.5608952.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410113.5439985.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>161.7</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>161.3</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731410114.0253916</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731410115.384637</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410114.0253916.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410115.384637.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>161.44</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>161.14</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731410115.7421286</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731410115.7421286.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731410115.7421286.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>160.72</v>
       </c>
-      <c r="J52" t="n">
-        <v>160.72</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
+      <c r="L52" t="n">
+        <v>160.76</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731410116.5077271</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731410117.054655</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410116.5077271.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410117.054655.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>49.45</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>49.465</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731410117.2305255</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731410119.062734</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410117.2305255.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410119.062734.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>49.63</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>49.66</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.02999999999999403</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731410119.1871748</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731410119.2850933</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410119.1871748.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410119.2850933.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>49.605</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>49.66</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.05499999999999972</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731410119.9356706</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731410120.794655</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410119.9356706.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410120.794655.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>49.55</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>49.495</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.05499999999999972</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731410121.6714594</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731410123.64981</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410121.6714594.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410123.64981.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>49.235</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>49.26</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731410125.5502605</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731410126.4529464</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410125.5502605.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410126.4529464.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>49.43</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>49.37</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731410126.8238223</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731410126.8238223.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731410126.8238223.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>49.245</v>
       </c>
-      <c r="J59" t="n">
-        <v>49.245</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
+      <c r="L59" t="n">
+        <v>49.16</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.08500000000000085</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731410128.244307</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731410131.0165467</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410128.244307.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410131.0165467.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1390</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1401.6</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-11.59999999999991</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731410131.2651913</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731410135.5556314</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410131.2651913.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410135.5556314.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1396.2</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1390</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-6.200000000000045</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731410136.1344194</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731410137.4686751</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410136.1344194.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410137.4686751.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1392</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1390.4</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731410139.8837209</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731410140.0100095</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410139.8837209.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410140.0100095.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>61.25</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>61.49</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.240000000000002</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731410140.3022668</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731410142.8964627</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410140.3022668.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410142.8964627.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>61.22</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>61.09</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.1299999999999955</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731410145.249336</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731410145.9945903</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410145.249336.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410145.9945903.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>60.58</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>60.76</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1799999999999997</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731410146.1212301</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731410146.5779002</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410146.1212301.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410146.5779002.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>60.92</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>60.92</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3597,89 +4195,107 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731410148.605415</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731410148.9786472</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410148.605415.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410148.9786472.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>61.03</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>60.85</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.1799999999999997</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731410149.1605701</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731410149.1605701.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731410149.1605701.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>60.72</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>60.72</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,669 +4303,795 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731410152.7113783</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731410152.9973311</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410152.7113783.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410152.9973311.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>98.27</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>98.44</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731410153.926861</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731410155.140602</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410153.926861.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410155.140602.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>98.06999999999999</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>98.19</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731410155.7084258</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731410156.725167</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410155.7084258.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410156.725167.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>97.69</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>97.81999999999999</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731410158.0349703</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731410158.3003752</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410158.0349703.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410158.3003752.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>97.93000000000001</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>97.70999999999999</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.2200000000000131</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731410160.7823012</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731410160.7823012.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731410160.7823012.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>97.75</v>
       </c>
-      <c r="J73" t="n">
-        <v>97.75</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
+      <c r="L73" t="n">
+        <v>97.66</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.09000000000000341</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731410161.3827188</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731410161.537524</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410161.3827188.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410161.537524.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>56.48</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>56.17</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.3099999999999952</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731410161.8634212</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731410162.4938264</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410161.8634212.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410162.4938264.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>55.99</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>56.18</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731410163.7725933</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731410164.5844417</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410163.7725933.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410164.5844417.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>55.91</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>56.07</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.1600000000000037</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731410166.44419</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731410168.17882</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410166.44419.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410168.17882.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>55.75</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>55.89</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731410170.631161</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731410174.6648152</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410170.631161.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410174.6648152.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>147.48</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>153.24</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-5.760000000000019</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-3.91</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731410175.853508</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731410176.4293313</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410175.853508.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410176.4293313.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>155.7</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>155.04</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.6599999999999966</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731410176.949804</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731410178.6996572</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410176.949804.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410178.6996572.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>154.02</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>153.8</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731410180.2284238</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731410180.9098876</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410180.2284238.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410180.9098876.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>154.32</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>153.86</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.4599999999999795</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731410181.1976888</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731410181.1976888.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731410181.1976888.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>152.74</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>152.74</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4357,612 +5099,729 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731410186.3847966</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731410186.960187</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731410186.3847966.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731410186.960187.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>20.42</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>20.49</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.06999999999999673</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731410187.535253</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731410189.4300747</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731410187.535253.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731410189.4300747.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>20.344</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>20.342</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.002000000000002444</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731410191.028198</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731410191.7608628</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731410191.028198.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731410191.7608628.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>20.379</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>20.321</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.05799999999999983</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731410191.8933957</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731410191.8933957.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731410191.8933957.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>20.261</v>
       </c>
-      <c r="J86" t="n">
-        <v>20.261</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
+      <c r="L86" t="n">
+        <v>20.161</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-0.09999999999999787</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731410195.8409722</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731410196.2867448</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731410195.8409722.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731410196.2867448.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>680</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>680.35</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.3500000000000227</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731410198.2982247</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731410200.1273901</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731410198.2982247.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731410200.1273901.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>677.35</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>677.05</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.3000000000000682</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731410200.1977654</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731410200.7834444</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731410200.1977654.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731410200.7834444.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>678.2</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>678.1</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731410202.5587635</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731410202.5587635.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731410202.5587635.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>675.75</v>
       </c>
-      <c r="J90" t="n">
-        <v>675.75</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
+      <c r="L90" t="n">
+        <v>675.7</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.04999999999995453</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731410203.0573633</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731410204.5568838</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410203.0573633.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410204.5568838.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>156.13</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>156.64</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.5099999999999909</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731410206.975481</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731410208.364308</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410206.975481.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410208.364308.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>157.83</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>156.46</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>1.370000000000005</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.8699999999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731410209.566845</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731410211.6418028</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410209.566845.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410211.6418028.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>156.03</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>154.97</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-1.060000000000002</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731410212.9362876</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731410213.8588483</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410212.9362876.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410213.8588483.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>156.28</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>155.51</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.7700000000000102</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731410214.3823793</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731410214.3823793.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731410214.3823793.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>154.54</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>154.54</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,146 +5829,173 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731410214.8172667</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731410215.6475384</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410214.8172667.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410215.6475384.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>0.09724000000000001</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>0.09748000000000001</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.0002400000000000041</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731410215.71805</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731410218.7294967</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410215.71805.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410218.7294967.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>0.098</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>0.09774000000000001</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.0002599999999999963</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731410219.2436101</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731410223.1244552</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410219.2436101.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410223.1244552.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>0.09742000000000001</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>0.09742000000000001</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5117,196 +6003,232 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731410223.5120256</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731410223.9724174</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410223.5120256.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410223.9724174.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>0.09772</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>0.09724000000000001</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.0004799999999999943</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731410225.8006506</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731410226.2157736</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410225.8006506.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410226.2157736.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>2949</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>2940.95</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>8.050000000000182</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731410227.4452138</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731410228.2807848</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410227.4452138.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410228.2807848.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>2949.6</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>2946.5</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>3.099999999999909</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731410228.6012871</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731410229.5684848</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410228.6012871.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410229.5684848.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>2940.7</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>2943</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>2.300000000000182</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -5320,7 +6242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5349,6 +6271,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5357,13 +6289,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.340000000000032</v>
+        <v>1.740000000000066</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2600000000000036</v>
+        <v>0.1933333333333407</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5373,13 +6311,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07000000000000739</v>
+        <v>-0.01499999999999346</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01000000000000105</v>
+        <v>-0.002142857142856209</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.02999999999999997</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -5389,13 +6333,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.5</v>
+        <v>29.5</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>6.75</v>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -5413,6 +6363,12 @@
       <c r="D5" t="n">
         <v>0.07833333333333432</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.7699999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5421,13 +6377,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.150000000000034</v>
+        <v>1.100000000000023</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2300000000000068</v>
+        <v>0.2200000000000046</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2199999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -5437,13 +6399,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6400000000000148</v>
+        <v>0.5500000000000114</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1280000000000029</v>
+        <v>0.1100000000000023</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="8">
@@ -5453,13 +6421,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2800000000000011</v>
+        <v>0.1800000000000068</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05600000000000023</v>
+        <v>0.03600000000000136</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -5477,6 +6451,12 @@
       <c r="D9" t="n">
         <v>-0.9720000000000084</v>
       </c>
+      <c r="E9" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.67</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5493,6 +6473,12 @@
       <c r="D10" t="n">
         <v>0.3180000000000007</v>
       </c>
+      <c r="E10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5501,13 +6487,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6800000000000068</v>
+        <v>0.7199999999999989</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1360000000000014</v>
+        <v>0.1439999999999998</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4400000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="12">
@@ -5517,13 +6509,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1259999999999941</v>
+        <v>0.02599999999999625</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03149999999999853</v>
+        <v>0.006499999999999062</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1199999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="13">
@@ -5541,6 +6539,12 @@
       <c r="D13" t="n">
         <v>0.1999999999999993</v>
       </c>
+      <c r="E13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5549,13 +6553,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8099999999999454</v>
+        <v>0.4699999999999704</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2024999999999864</v>
+        <v>0.1174999999999926</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="15">
@@ -5573,6 +6583,12 @@
       <c r="D15" t="n">
         <v>0.1374999999999957</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5589,6 +6605,12 @@
       <c r="D16" t="n">
         <v>-0.09999999999999432</v>
       </c>
+      <c r="E16" t="n">
+        <v>-0.03999999999999998</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5597,13 +6619,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4899999999999807</v>
+        <v>0.4099999999999682</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1224999999999952</v>
+        <v>0.102499999999992</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
@@ -5621,6 +6649,12 @@
       <c r="D18" t="n">
         <v>0.0002449999999999987</v>
       </c>
+      <c r="E18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5629,13 +6663,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.04100000000000037</v>
+        <v>-0.04400000000000048</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01025000000000009</v>
+        <v>-0.01100000000000012</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="20">
@@ -5645,13 +6685,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.5500000000000682</v>
+        <v>-0.6000000000000227</v>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1375000000000171</v>
+        <v>-0.1500000000000057</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="21">
@@ -5669,6 +6715,12 @@
       <c r="D21" t="n">
         <v>4.483333333333424</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5685,6 +6737,12 @@
       <c r="D22" t="n">
         <v>-5.400000000000015</v>
       </c>
+      <c r="E22" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.39</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -5699,6 +6757,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
